--- a/Product/StaticData/ImageTextMix.xlsx
+++ b/Product/StaticData/ImageTextMix.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Mix" sheetId="2" r:id="rId1"/>
-    <sheet name="勿删" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>tid</t>
   </si>
@@ -38,28 +37,7 @@
     <t>res读取路径,宽,高</t>
   </si>
   <si>
-    <t>["UI/Common/box_small_close",51,46]</t>
-  </si>
-  <si>
-    <t>["UI/Common/box_small_open",52,46]</t>
-  </si>
-  <si>
-    <t>["UI/GameDesc/tips_wild",104,41]</t>
-  </si>
-  <si>
-    <t>["UI/GameDesc/tips_freeSpin",229,44]</t>
-  </si>
-  <si>
-    <t>["UI/GameDesc/tips_cash",150,44]</t>
-  </si>
-  <si>
-    <t>["UI/GameDesc/tips_bonus",209,52]</t>
-  </si>
-  <si>
-    <t>["UI/GameDesc/boost_disco_1",138,42]</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>["UI/Common/icon_gold",51,51]</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1008,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1092,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1114,7 +1092,7 @@
         <v>1667200010</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1122,7 +1100,7 @@
         <v>1667200011</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1130,7 +1108,7 @@
         <v>1667200012</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1138,7 +1116,7 @@
         <v>1667200013</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
@@ -1146,34 +1124,7 @@
         <v>1667200014</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
